--- a/file/gift_role.xlsx
+++ b/file/gift_role.xlsx
@@ -1,28 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bb_bird/work/transferdata/file/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="fiona" sheetId="1" r:id="rId1"/>
+    <sheet name="24" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -44,12 +31,10 @@
     <t>优先级</t>
   </si>
   <si>
-    <t>9348895000141
-9348895000370
-9351829009905
-9348895000271
-9348895000363
-9352206000171</t>
+    <t>9421017760762</t>
+  </si>
+  <si>
+    <t>0735850552323;Bio-e 水杯 X1</t>
   </si>
   <si>
     <t>9351419000183
@@ -67,41 +52,380 @@
   <si>
     <t>0735850552651;Ficcecode赠品毛巾X1</t>
   </si>
-  <si>
-    <t>0735850552323;Bio-e 水杯 X1</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="4"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -109,9 +433,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -122,10 +688,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -387,26 +1000,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="22.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="29.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +1036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -434,30 +1047,31 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+    <row r="3" ht="171.6" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/file/gift_role.xlsx
+++ b/file/gift_role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="500"/>
+    <workbookView windowWidth="21648" windowHeight="8424" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="24" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>序号</t>
   </si>
@@ -31,39 +31,41 @@
     <t>优先级</t>
   </si>
   <si>
-    <t>9421017760762</t>
+    <t>9400581043242;Nutra-Life Y-Herbal 纽乐天然草药男性功能性补肾肾宝30片X1</t>
   </si>
   <si>
-    <t>0735850552323;Bio-e 水杯 X1</t>
+    <t>9400581042658;NutraLife 纽乐芹菜籽芹菜精60粒缓解痛风X1</t>
   </si>
   <si>
-    <t>9351419000183
-9351419000091
-9351419000169
-9351419000176
-9351419000152
-9351419000084
-9351419000145
-9351419000107
-9351419000114
-9351419000015
-9351419000008</t>
+    <t>9400581039580;纽乐 葡萄籽50000 120粒X1</t>
   </si>
   <si>
-    <t>0735850552651;Ficcecode赠品毛巾X1</t>
+    <t>9400581037852;Nutralife 纽乐 蔓越莓50000 50粒1</t>
+  </si>
+  <si>
+    <t>9421905522014;Coco Brownie虾青素面膜抗氧化抗初老7片/盒X1
+9421905522021;Coco Brownie虾青素抗氧化抗衰老面霜50mlX1
+9421905522007;COCO BROWNIE 虾青素抗初老洁面乳100mlX1</t>
+  </si>
+  <si>
+    <t>9421905522014;Coco Brownie虾青素面膜抗氧化抗初老7片/盒X1</t>
+  </si>
+  <si>
+    <t>9421904521940;Antipodes Antipodes Blessing抗雾霾防雾霾精华防辐射精华 30mlX1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,114 +82,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF606266"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,6 +125,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -207,6 +179,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -215,9 +216,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,6 +234,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,25 +255,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,13 +363,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,19 +423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,120 +435,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -435,16 +450,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,8 +467,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,21 +484,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,11 +508,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,159 +564,165 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1006,17 +1042,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="31.8333333333333" customWidth="1"/>
     <col min="3" max="3" width="22.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="29.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="29.6590909090909" customWidth="1"/>
+    <col min="5" max="5" width="21.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1036,37 +1073,127 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row r="2" ht="46.8" spans="1:6">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3">
+        <v>9400581043242</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="3">
+        <v>9400581042658</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
+      <c r="F3" s="5"/>
     </row>
-    <row r="3" ht="171.6" spans="1:5">
-      <c r="A3">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9400581039580</v>
+      </c>
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" ht="31.2" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9400581032383</v>
+      </c>
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" ht="93.6" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9421905522014</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9421905522014</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9421900569786</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
         <v>1</v>
       </c>
     </row>

--- a/file/gift_role.xlsx
+++ b/file/gift_role.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21648" windowHeight="8424" tabRatio="500"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="24" sheetId="1" r:id="rId1"/>
+    <sheet name="20" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>序号</t>
   </si>
@@ -52,6 +53,14 @@
   </si>
   <si>
     <t>9421904521940;Antipodes Antipodes Blessing抗雾霾防雾霾精华防辐射精华 30mlX1</t>
+  </si>
+  <si>
+    <t>9421017766887
+9421017768904
+9421017768898</t>
+  </si>
+  <si>
+    <t>9319932002060;Kosmea/蔻诗美玫瑰果油20mlX1</t>
   </si>
 </sst>
 </file>
@@ -59,11 +68,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="000000"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -96,14 +105,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,9 +142,100 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,119 +254,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -255,187 +264,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,15 +473,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -488,21 +488,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -525,9 +529,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,165 +553,168 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,8 +1053,8 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1201,4 +1210,61 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="20.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="46.8" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>